--- a/save/awsom_ion_width_merg.xlsx
+++ b/save/awsom_ion_width_merg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjzhu/Desktop/Solar/EIS_2021/save/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C3AA5A-29B7-AC4B-B6ED-7315CD1C1663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A84F4EF-2C7E-CB4B-9067-E4F2CFA11521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="960" windowWidth="27240" windowHeight="16440" xr2:uid="{3DCFD0CB-715A-2D4B-85DC-F643424B7CE8}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,10 +541,10 @@
         <v>8</v>
       </c>
       <c r="G2">
-        <v>32.1</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="H2">
-        <v>1.9</v>
+        <v>0.1</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -570,10 +570,10 @@
         <v>8</v>
       </c>
       <c r="G3">
-        <v>32.299999999999997</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="H3">
-        <v>3.1</v>
+        <v>0.3</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -599,10 +599,10 @@
         <v>8</v>
       </c>
       <c r="G4">
-        <v>36.9</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="H4">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>
@@ -628,10 +628,10 @@
         <v>8</v>
       </c>
       <c r="G5">
-        <v>38.299999999999997</v>
+        <v>40.9</v>
       </c>
       <c r="H5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
@@ -657,10 +657,10 @@
         <v>8</v>
       </c>
       <c r="G6">
-        <v>40.6</v>
+        <v>43.5</v>
       </c>
       <c r="H6">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -686,10 +686,10 @@
         <v>8</v>
       </c>
       <c r="G7">
-        <v>38.799999999999997</v>
+        <v>44.9</v>
       </c>
       <c r="H7">
-        <v>2.2000000000000002</v>
+        <v>0.6</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -715,10 +715,10 @@
         <v>8</v>
       </c>
       <c r="G8">
-        <v>41.2</v>
+        <v>48.2</v>
       </c>
       <c r="H8">
-        <v>2.6</v>
+        <v>0.1</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -744,10 +744,10 @@
         <v>8</v>
       </c>
       <c r="G9">
-        <v>36.4</v>
+        <v>42.9</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I9" t="s">
         <v>9</v>
@@ -773,10 +773,10 @@
         <v>8</v>
       </c>
       <c r="G10">
-        <v>38.5</v>
+        <v>43.1</v>
       </c>
       <c r="H10">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
@@ -802,10 +802,10 @@
         <v>8</v>
       </c>
       <c r="G11">
-        <v>39.200000000000003</v>
+        <v>42.3</v>
       </c>
       <c r="H11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
@@ -831,10 +831,10 @@
         <v>8</v>
       </c>
       <c r="G12">
-        <v>35</v>
+        <v>41.1</v>
       </c>
       <c r="H12">
-        <v>21</v>
+        <v>1.7</v>
       </c>
       <c r="I12" t="s">
         <v>9</v>
@@ -860,10 +860,10 @@
         <v>8</v>
       </c>
       <c r="G13">
-        <v>36.9</v>
+        <v>45.1</v>
       </c>
       <c r="H13">
-        <v>2.8</v>
+        <v>0.1</v>
       </c>
       <c r="I13" t="s">
         <v>11</v>
@@ -889,10 +889,10 @@
         <v>8</v>
       </c>
       <c r="G14">
-        <v>37.200000000000003</v>
+        <v>44.6</v>
       </c>
       <c r="H14">
-        <v>5.9</v>
+        <v>0.1</v>
       </c>
       <c r="I14" t="s">
         <v>11</v>
@@ -918,10 +918,10 @@
         <v>8</v>
       </c>
       <c r="G15">
-        <v>43.4</v>
+        <v>38.5</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>0.4</v>
       </c>
       <c r="I15" t="s">
         <v>9</v>
@@ -947,10 +947,10 @@
         <v>26</v>
       </c>
       <c r="G16">
-        <v>49.5</v>
+        <v>43.3</v>
       </c>
       <c r="H16">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="I16" t="s">
         <v>11</v>
@@ -976,10 +976,10 @@
         <v>26</v>
       </c>
       <c r="G17">
-        <v>57</v>
+        <v>43.7</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="s">
         <v>11</v>
@@ -1005,10 +1005,10 @@
         <v>26</v>
       </c>
       <c r="G18">
-        <v>46</v>
+        <v>44.7</v>
       </c>
       <c r="H18">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="s">
         <v>11</v>
@@ -1034,10 +1034,10 @@
         <v>26</v>
       </c>
       <c r="G19">
-        <v>50.3</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="H19">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="I19" t="s">
         <v>11</v>
@@ -1063,10 +1063,10 @@
         <v>26</v>
       </c>
       <c r="G20">
-        <v>52.7</v>
+        <v>39.9</v>
       </c>
       <c r="H20">
-        <v>2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="I20" t="s">
         <v>11</v>
@@ -1095,10 +1095,10 @@
         <v>26</v>
       </c>
       <c r="G21">
-        <v>45.5</v>
+        <v>40.9</v>
       </c>
       <c r="H21">
-        <v>6.5</v>
+        <v>0.1</v>
       </c>
       <c r="I21" t="s">
         <v>11</v>
@@ -1124,10 +1124,10 @@
         <v>26</v>
       </c>
       <c r="G22">
-        <v>61.4</v>
+        <v>44.4</v>
       </c>
       <c r="H22">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="I22" t="s">
         <v>11</v>
@@ -1153,10 +1153,10 @@
         <v>26</v>
       </c>
       <c r="G23">
-        <v>49.8</v>
+        <v>40.9</v>
       </c>
       <c r="H23">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="I23" t="s">
         <v>11</v>
@@ -1182,10 +1182,10 @@
         <v>26</v>
       </c>
       <c r="G24">
-        <v>50.1</v>
+        <v>48.2</v>
       </c>
       <c r="H24">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="s">
         <v>11</v>
@@ -1211,10 +1211,10 @@
         <v>26</v>
       </c>
       <c r="G25">
-        <v>69</v>
+        <v>44.3</v>
       </c>
       <c r="H25">
-        <v>15</v>
+        <v>0.1</v>
       </c>
       <c r="I25" t="s">
         <v>11</v>
@@ -1240,10 +1240,10 @@
         <v>26</v>
       </c>
       <c r="G26">
-        <v>54.2</v>
+        <v>45.5</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="s">
         <v>11</v>
@@ -1269,10 +1269,10 @@
         <v>26</v>
       </c>
       <c r="G27">
-        <v>50.8</v>
+        <v>42.2</v>
       </c>
       <c r="H27">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="I27" t="s">
         <v>11</v>
@@ -1298,10 +1298,10 @@
         <v>26</v>
       </c>
       <c r="G28">
-        <v>36.799999999999997</v>
+        <v>43.4</v>
       </c>
       <c r="H28">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="I28" t="s">
         <v>11</v>
@@ -1327,10 +1327,10 @@
         <v>26</v>
       </c>
       <c r="G29">
-        <v>32.200000000000003</v>
+        <v>48.8</v>
       </c>
       <c r="H29">
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="I29" t="s">
         <v>11</v>
@@ -1356,10 +1356,10 @@
         <v>26</v>
       </c>
       <c r="G30">
-        <v>39</v>
+        <v>43.3</v>
       </c>
       <c r="H30">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="I30" t="s">
         <v>11</v>
@@ -1385,10 +1385,10 @@
         <v>26</v>
       </c>
       <c r="G31">
-        <v>41.8</v>
+        <v>42.4</v>
       </c>
       <c r="H31">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="s">
         <v>11</v>

--- a/save/awsom_ion_width_merg.xlsx
+++ b/save/awsom_ion_width_merg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjzhu/Desktop/Solar/EIS_2021/save/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A84F4EF-2C7E-CB4B-9067-E4F2CFA11521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07950986-5016-F840-8CD5-8D0497B20C8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="960" windowWidth="27240" windowHeight="16440" xr2:uid="{3DCFD0CB-715A-2D4B-85DC-F643424B7CE8}"/>
+    <workbookView xWindow="3680" yWindow="2080" windowWidth="27240" windowHeight="16440" xr2:uid="{3DCFD0CB-715A-2D4B-85DC-F643424B7CE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
